--- a/data/Processed/ClosePrice.xlsx
+++ b/data/Processed/ClosePrice.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rahul/Library/Mobile Documents/com~apple~CloudDocs/Columbia Courseworks/Semester 1 Fall 2021/EDAV/Final Project Code/covid19-finance/data/Processed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F8E4B2F-16A8-B546-B6F5-B9E93F3216B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DD1D47F-3E4B-5748-BF1A-1C68190AB438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{DEEA1406-E213-CF45-A18B-201D4909D8E2}"/>
   </bookViews>
   <sheets>
     <sheet name="ClosePrice" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -424,8 +424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9E8F88C-4EB3-324D-98DF-1319803A836A}">
   <dimension ref="A1:L576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A561" workbookViewId="0">
-      <selection activeCell="I577" sqref="I577"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
